--- a/A3_Project_Demo_Digital_Transformation/Results_Data/Step4_Results_Ouput/2_Line_of_Defense/output_ad_xyz_ManagerReview_20211230_Joe.Emp6@xyz.com.xlsx
+++ b/A3_Project_Demo_Digital_Transformation/Results_Data/Step4_Results_Ouput/2_Line_of_Defense/output_ad_xyz_ManagerReview_20211230_Joe.Emp6@xyz.com.xlsx
@@ -17,112 +17,127 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="103">
   <si>
+    <t>AD_Privileged_Access</t>
+  </si>
+  <si>
+    <t>HR_Department_Name</t>
+  </si>
+  <si>
+    <t>HR_Manage_Email</t>
+  </si>
+  <si>
+    <t>AD_Lastname</t>
+  </si>
+  <si>
     <t>HR_Last_Name</t>
   </si>
   <si>
+    <t>zMatched</t>
+  </si>
+  <si>
+    <t>AD_Unique_AD_Departments</t>
+  </si>
+  <si>
+    <t>AD_WhenChanged</t>
+  </si>
+  <si>
+    <t>HR_Record_Type</t>
+  </si>
+  <si>
+    <t>AD_AccountExpiry</t>
+  </si>
+  <si>
+    <t>AD_EmailAddress</t>
+  </si>
+  <si>
+    <t>AD_Firstname</t>
+  </si>
+  <si>
+    <t>AD_Enabled</t>
+  </si>
+  <si>
+    <t>AD_DisplayName</t>
+  </si>
+  <si>
     <t>HR_Work_Email</t>
   </si>
   <si>
+    <t>AD_xyz_Grp_Tags</t>
+  </si>
+  <si>
+    <t>HR_Status</t>
+  </si>
+  <si>
+    <t>AD_Passwordset</t>
+  </si>
+  <si>
+    <t>HR_Termination_Date</t>
+  </si>
+  <si>
+    <t>AD_Description</t>
+  </si>
+  <si>
+    <t>HR_Employee_No</t>
+  </si>
+  <si>
+    <t>zDays_SinceLastLogonDate</t>
+  </si>
+  <si>
     <t>AD_CreateTimeStamp</t>
   </si>
   <si>
+    <t>AD_Company</t>
+  </si>
+  <si>
+    <t>AD_Department</t>
+  </si>
+  <si>
+    <t>AD_WhenCreated</t>
+  </si>
+  <si>
+    <t>zDays_SincePswdReset</t>
+  </si>
+  <si>
+    <t>zDays_SinceWhenCreated</t>
+  </si>
+  <si>
+    <t>zAD_User_Status</t>
+  </si>
+  <si>
+    <t>AD_SamAccountName</t>
+  </si>
+  <si>
+    <t>HR_First_Name</t>
+  </si>
+  <si>
+    <t>zDays_SinceWhenChanged</t>
+  </si>
+  <si>
+    <t>AD_LastLogonDate</t>
+  </si>
+  <si>
+    <t>HR_Division</t>
+  </si>
+  <si>
     <t>zTerminated_User_ActiveAD</t>
   </si>
   <si>
-    <t>zDays_SinceWhenCreated</t>
-  </si>
-  <si>
-    <t>HR_Record_Type</t>
-  </si>
-  <si>
-    <t>AD_Privileged_Access</t>
-  </si>
-  <si>
-    <t>AD_AccountExpiry</t>
-  </si>
-  <si>
-    <t>AD_WhenCreated</t>
-  </si>
-  <si>
-    <t>AD_WhenChanged</t>
-  </si>
-  <si>
-    <t>AD_xyz_Grp_Tags</t>
-  </si>
-  <si>
-    <t>zAD_User_Status</t>
-  </si>
-  <si>
-    <t>AD_Passwordset</t>
-  </si>
-  <si>
-    <t>AD_Company</t>
-  </si>
-  <si>
-    <t>AD_SamAccountName</t>
-  </si>
-  <si>
-    <t>AD_Unique_AD_Departments</t>
-  </si>
-  <si>
-    <t>AD_Department</t>
-  </si>
-  <si>
-    <t>HR_Division</t>
-  </si>
-  <si>
-    <t>HR_First_Name</t>
-  </si>
-  <si>
-    <t>AD_Firstname</t>
-  </si>
-  <si>
-    <t>HR_Department_Name</t>
-  </si>
-  <si>
-    <t>HR_Employee_No</t>
-  </si>
-  <si>
-    <t>HR_Termination_Date</t>
-  </si>
-  <si>
-    <t>zDays_SinceWhenChanged</t>
-  </si>
-  <si>
     <t>AD_xyz_Dept_Tags</t>
   </si>
   <si>
-    <t>zMatched</t>
-  </si>
-  <si>
-    <t>AD_Lastname</t>
-  </si>
-  <si>
-    <t>zDays_SincePswdReset</t>
-  </si>
-  <si>
-    <t>AD_Enabled</t>
-  </si>
-  <si>
-    <t>AD_EmailAddress</t>
-  </si>
-  <si>
-    <t>AD_Description</t>
-  </si>
-  <si>
-    <t>zDays_SinceLastLogonDate</t>
-  </si>
-  <si>
-    <t>AD_LastLogonDate</t>
-  </si>
-  <si>
-    <t>HR_Manage_Email</t>
-  </si>
-  <si>
-    <t>HR_Status</t>
-  </si>
-  <si>
-    <t>AD_DisplayName</t>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>AZURE</t>
+  </si>
+  <si>
+    <t>CRM product</t>
+  </si>
+  <si>
+    <t>AWS</t>
+  </si>
+  <si>
+    <t>Joe.Emp6@xyz.com</t>
   </si>
   <si>
     <t>Emp5</t>
@@ -146,6 +161,15 @@
     <t>Emp14</t>
   </si>
   <si>
+    <t>HR_Match</t>
+  </si>
+  <si>
+    <t>XY-Dept2</t>
+  </si>
+  <si>
+    <t>XYZ Employee</t>
+  </si>
+  <si>
     <t>sat.emp5@xyz.com</t>
   </si>
   <si>
@@ -167,21 +191,87 @@
     <t>sara.emp14@xyz.com</t>
   </si>
   <si>
-    <t>XYZ Employee</t>
-  </si>
-  <si>
-    <t>yes</t>
+    <t>Sat</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
+    <t>Matt</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Lobo</t>
+  </si>
+  <si>
+    <t>Zha</t>
+  </si>
+  <si>
+    <t>Sara</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>Sat Emp5</t>
+  </si>
+  <si>
+    <t>Steve Emp8</t>
+  </si>
+  <si>
+    <t>Matt Emp9</t>
+  </si>
+  <si>
+    <t>Anna Emp11</t>
+  </si>
+  <si>
+    <t>Lobo Emp12</t>
+  </si>
+  <si>
+    <t>Zha Emp13</t>
+  </si>
+  <si>
+    <t>Sara Emp14</t>
   </si>
   <si>
     <t>X</t>
   </si>
   <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Leave</t>
+  </si>
+  <si>
+    <t>Request#119</t>
+  </si>
+  <si>
+    <t>Request#116</t>
+  </si>
+  <si>
+    <t>Request#115</t>
+  </si>
+  <si>
+    <t>Request#113</t>
+  </si>
+  <si>
+    <t>Request#112</t>
+  </si>
+  <si>
+    <t>Request#111</t>
+  </si>
+  <si>
+    <t>Request#110</t>
+  </si>
+  <si>
     <t>Inactive</t>
   </si>
   <si>
-    <t>Active</t>
-  </si>
-  <si>
     <t>SATEMP5x</t>
   </si>
   <si>
@@ -203,97 +293,7 @@
     <t>SARAEMP14x</t>
   </si>
   <si>
-    <t>XY-Dept2</t>
-  </si>
-  <si>
     <t>Consulting</t>
-  </si>
-  <si>
-    <t>Sat</t>
-  </si>
-  <si>
-    <t>Steve</t>
-  </si>
-  <si>
-    <t>Matt</t>
-  </si>
-  <si>
-    <t>Anna</t>
-  </si>
-  <si>
-    <t>Lobo</t>
-  </si>
-  <si>
-    <t>Zha</t>
-  </si>
-  <si>
-    <t>Sara</t>
-  </si>
-  <si>
-    <t>AZURE</t>
-  </si>
-  <si>
-    <t>CRM product</t>
-  </si>
-  <si>
-    <t>AWS</t>
-  </si>
-  <si>
-    <t>HR_Match</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>Request#119</t>
-  </si>
-  <si>
-    <t>Request#116</t>
-  </si>
-  <si>
-    <t>Request#115</t>
-  </si>
-  <si>
-    <t>Request#113</t>
-  </si>
-  <si>
-    <t>Request#112</t>
-  </si>
-  <si>
-    <t>Request#111</t>
-  </si>
-  <si>
-    <t>Request#110</t>
-  </si>
-  <si>
-    <t>Joe.Emp6@xyz.com</t>
-  </si>
-  <si>
-    <t>Leave</t>
-  </si>
-  <si>
-    <t>Sat Emp5</t>
-  </si>
-  <si>
-    <t>Steve Emp8</t>
-  </si>
-  <si>
-    <t>Matt Emp9</t>
-  </si>
-  <si>
-    <t>Anna Emp11</t>
-  </si>
-  <si>
-    <t>Lobo Emp12</t>
-  </si>
-  <si>
-    <t>Zha Emp13</t>
-  </si>
-  <si>
-    <t>Sara Emp14</t>
   </si>
   <si>
     <t>AD_Group</t>
@@ -805,80 +805,86 @@
       <c r="A2" s="1">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
       <c r="C2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="2">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="2">
+        <v>44459.5591087963</v>
+      </c>
+      <c r="J2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>74</v>
+      </c>
+      <c r="R2" t="s">
+        <v>75</v>
+      </c>
+      <c r="S2" s="2">
+        <v>44456.52199074074</v>
+      </c>
+      <c r="U2" t="s">
+        <v>77</v>
+      </c>
+      <c r="V2">
+        <v>1005</v>
+      </c>
+      <c r="W2">
+        <v>106</v>
+      </c>
+      <c r="X2" s="2">
         <v>44457.52199074074</v>
       </c>
-      <c r="F2">
+      <c r="Z2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>44457.52199074074</v>
+      </c>
+      <c r="AB2">
+        <v>109</v>
+      </c>
+      <c r="AC2">
         <v>108</v>
       </c>
-      <c r="G2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="2">
-        <v>44457.52199074074</v>
-      </c>
-      <c r="K2" s="2">
-        <v>44459.5591087963</v>
-      </c>
-      <c r="L2" t="s">
-        <v>52</v>
-      </c>
-      <c r="M2" t="s">
-        <v>53</v>
-      </c>
-      <c r="N2" s="2">
-        <v>44456.52199074074</v>
-      </c>
-      <c r="P2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R2" t="s">
-        <v>62</v>
-      </c>
-      <c r="S2" t="s">
-        <v>63</v>
-      </c>
-      <c r="T2" t="s">
-        <v>64</v>
-      </c>
-      <c r="U2" t="s">
-        <v>64</v>
-      </c>
-      <c r="V2" t="s">
-        <v>71</v>
-      </c>
-      <c r="W2">
-        <v>1005</v>
-      </c>
-      <c r="Y2">
-        <v>106</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC2">
-        <v>109</v>
-      </c>
       <c r="AD2" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AE2" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="AF2" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="AG2">
         <v>106</v>
@@ -887,13 +893,7 @@
         <v>44459.54693287037</v>
       </c>
       <c r="AI2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:37">
@@ -901,82 +901,88 @@
         <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="2">
-        <v>44457.52199074074</v>
-      </c>
-      <c r="F3">
-        <v>108</v>
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
       </c>
       <c r="G3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="2">
+        <v>44459.5591087963</v>
+      </c>
+      <c r="J3" t="s">
         <v>50</v>
-      </c>
-      <c r="H3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J3" s="2">
-        <v>44457.52199074074</v>
-      </c>
-      <c r="K3" s="2">
-        <v>44459.5591087963</v>
       </c>
       <c r="L3" t="s">
         <v>52</v>
       </c>
       <c r="M3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N3" s="2">
+        <v>59</v>
+      </c>
+      <c r="N3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O3" t="s">
+        <v>68</v>
+      </c>
+      <c r="P3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>74</v>
+      </c>
+      <c r="R3" t="s">
+        <v>76</v>
+      </c>
+      <c r="S3" s="2">
         <v>44456.52199074074</v>
       </c>
-      <c r="P3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>62</v>
-      </c>
-      <c r="R3" t="s">
-        <v>62</v>
-      </c>
-      <c r="S3" t="s">
-        <v>63</v>
-      </c>
-      <c r="T3" t="s">
-        <v>65</v>
-      </c>
       <c r="U3" t="s">
-        <v>65</v>
-      </c>
-      <c r="V3" t="s">
-        <v>72</v>
+        <v>78</v>
+      </c>
+      <c r="V3">
+        <v>1008</v>
       </c>
       <c r="W3">
-        <v>1008</v>
-      </c>
-      <c r="Y3">
         <v>106</v>
       </c>
-      <c r="AA3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>37</v>
+      <c r="X3" s="2">
+        <v>44457.52199074074</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>44457.52199074074</v>
+      </c>
+      <c r="AB3">
+        <v>109</v>
       </c>
       <c r="AC3">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AD3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AE3" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="AF3" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="AG3">
         <v>106</v>
@@ -985,13 +991,7 @@
         <v>44459.54693287037</v>
       </c>
       <c r="AI3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:37">
@@ -999,82 +999,88 @@
         <v>49</v>
       </c>
       <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="2">
+        <v>44459.5591087963</v>
+      </c>
+      <c r="J4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" t="s">
+        <v>60</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>74</v>
+      </c>
+      <c r="R4" t="s">
+        <v>75</v>
+      </c>
+      <c r="S4" s="2">
+        <v>44456.52199074074</v>
+      </c>
+      <c r="U4" t="s">
+        <v>79</v>
+      </c>
+      <c r="V4">
+        <v>1009</v>
+      </c>
+      <c r="W4">
+        <v>106</v>
+      </c>
+      <c r="X4" s="2">
         <v>44457.52199074074</v>
       </c>
-      <c r="F4">
+      <c r="Z4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>44457.52199074074</v>
+      </c>
+      <c r="AB4">
+        <v>109</v>
+      </c>
+      <c r="AC4">
         <v>108</v>
       </c>
-      <c r="G4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J4" s="2">
-        <v>44457.52199074074</v>
-      </c>
-      <c r="K4" s="2">
-        <v>44459.5591087963</v>
-      </c>
-      <c r="L4" t="s">
-        <v>52</v>
-      </c>
-      <c r="M4" t="s">
-        <v>54</v>
-      </c>
-      <c r="N4" s="2">
-        <v>44456.52199074074</v>
-      </c>
-      <c r="P4" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>62</v>
-      </c>
-      <c r="R4" t="s">
-        <v>62</v>
-      </c>
-      <c r="S4" t="s">
-        <v>63</v>
-      </c>
-      <c r="T4" t="s">
-        <v>66</v>
-      </c>
-      <c r="U4" t="s">
-        <v>66</v>
-      </c>
-      <c r="V4" t="s">
-        <v>72</v>
-      </c>
-      <c r="W4">
-        <v>1009</v>
-      </c>
-      <c r="Y4">
-        <v>106</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC4">
-        <v>109</v>
-      </c>
       <c r="AD4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AE4" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="AF4" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="AG4">
         <v>106</v>
@@ -1083,93 +1089,93 @@
         <v>44459.54693287037</v>
       </c>
       <c r="AI4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:37">
       <c r="A5" s="1">
         <v>60</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>39</v>
       </c>
-      <c r="C5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="2">
+        <v>44459.5591087963</v>
+      </c>
+      <c r="J5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M5" t="s">
+        <v>61</v>
+      </c>
+      <c r="N5" t="s">
+        <v>66</v>
+      </c>
+      <c r="O5" t="s">
+        <v>70</v>
+      </c>
+      <c r="P5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>74</v>
+      </c>
+      <c r="R5" t="s">
+        <v>75</v>
+      </c>
+      <c r="S5" s="2">
+        <v>44456.52199074074</v>
+      </c>
+      <c r="U5" t="s">
+        <v>80</v>
+      </c>
+      <c r="V5">
+        <v>1011</v>
+      </c>
+      <c r="W5">
+        <v>106</v>
+      </c>
+      <c r="X5" s="2">
         <v>44457.52199074074</v>
       </c>
-      <c r="F5">
+      <c r="Z5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>44457.52199074074</v>
+      </c>
+      <c r="AB5">
+        <v>109</v>
+      </c>
+      <c r="AC5">
         <v>108</v>
       </c>
-      <c r="G5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J5" s="2">
-        <v>44457.52199074074</v>
-      </c>
-      <c r="K5" s="2">
-        <v>44459.5591087963</v>
-      </c>
-      <c r="L5" t="s">
-        <v>52</v>
-      </c>
-      <c r="M5" t="s">
-        <v>54</v>
-      </c>
-      <c r="N5" s="2">
-        <v>44456.52199074074</v>
-      </c>
-      <c r="P5" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>62</v>
-      </c>
-      <c r="R5" t="s">
-        <v>62</v>
-      </c>
-      <c r="S5" t="s">
-        <v>63</v>
-      </c>
-      <c r="T5" t="s">
-        <v>67</v>
-      </c>
-      <c r="U5" t="s">
-        <v>67</v>
-      </c>
-      <c r="V5" t="s">
-        <v>73</v>
-      </c>
-      <c r="W5">
-        <v>1011</v>
-      </c>
-      <c r="Y5">
-        <v>106</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC5">
-        <v>109</v>
-      </c>
       <c r="AD5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AE5" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="AF5" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="AG5">
         <v>106</v>
@@ -1178,93 +1184,93 @@
         <v>44459.54693287037</v>
       </c>
       <c r="AI5" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:37">
       <c r="A6" s="1">
         <v>61</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
         <v>40</v>
       </c>
-      <c r="C6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="2">
+        <v>44459.5591087963</v>
+      </c>
+      <c r="J6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" t="s">
+        <v>55</v>
+      </c>
+      <c r="M6" t="s">
+        <v>62</v>
+      </c>
+      <c r="N6" t="s">
+        <v>65</v>
+      </c>
+      <c r="O6" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>74</v>
+      </c>
+      <c r="R6" t="s">
+        <v>75</v>
+      </c>
+      <c r="S6" s="2">
+        <v>44456.52199074074</v>
+      </c>
+      <c r="U6" t="s">
+        <v>81</v>
+      </c>
+      <c r="V6">
+        <v>1012</v>
+      </c>
+      <c r="W6">
+        <v>106</v>
+      </c>
+      <c r="X6" s="2">
         <v>44457.52199074074</v>
       </c>
-      <c r="F6">
+      <c r="Z6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>44457.52199074074</v>
+      </c>
+      <c r="AB6">
+        <v>109</v>
+      </c>
+      <c r="AC6">
         <v>108</v>
       </c>
-      <c r="G6" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" s="2">
-        <v>44457.52199074074</v>
-      </c>
-      <c r="K6" s="2">
-        <v>44459.5591087963</v>
-      </c>
-      <c r="L6" t="s">
-        <v>52</v>
-      </c>
-      <c r="M6" t="s">
-        <v>53</v>
-      </c>
-      <c r="N6" s="2">
-        <v>44456.52199074074</v>
-      </c>
-      <c r="P6" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q6" t="s">
+      <c r="AD6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF6" t="s">
         <v>62</v>
-      </c>
-      <c r="R6" t="s">
-        <v>62</v>
-      </c>
-      <c r="S6" t="s">
-        <v>63</v>
-      </c>
-      <c r="T6" t="s">
-        <v>68</v>
-      </c>
-      <c r="U6" t="s">
-        <v>68</v>
-      </c>
-      <c r="V6" t="s">
-        <v>71</v>
-      </c>
-      <c r="W6">
-        <v>1012</v>
-      </c>
-      <c r="Y6">
-        <v>106</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC6">
-        <v>109</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>81</v>
       </c>
       <c r="AG6">
         <v>106</v>
@@ -1273,93 +1279,93 @@
         <v>44459.54693287037</v>
       </c>
       <c r="AI6" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:37">
       <c r="A7" s="1">
         <v>63</v>
       </c>
-      <c r="B7" t="s">
-        <v>41</v>
-      </c>
       <c r="C7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="2">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="2">
+        <v>44459.5591087963</v>
+      </c>
+      <c r="J7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M7" t="s">
+        <v>63</v>
+      </c>
+      <c r="N7" t="s">
+        <v>66</v>
+      </c>
+      <c r="O7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>74</v>
+      </c>
+      <c r="R7" t="s">
+        <v>76</v>
+      </c>
+      <c r="S7" s="2">
+        <v>44456.52199074074</v>
+      </c>
+      <c r="U7" t="s">
+        <v>82</v>
+      </c>
+      <c r="V7">
+        <v>1013</v>
+      </c>
+      <c r="W7">
+        <v>106</v>
+      </c>
+      <c r="X7" s="2">
         <v>44457.52199074074</v>
       </c>
-      <c r="F7">
+      <c r="Z7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>44457.52199074074</v>
+      </c>
+      <c r="AB7">
+        <v>109</v>
+      </c>
+      <c r="AC7">
         <v>108</v>
       </c>
-      <c r="G7" t="s">
-        <v>50</v>
-      </c>
-      <c r="J7" s="2">
-        <v>44457.52199074074</v>
-      </c>
-      <c r="K7" s="2">
-        <v>44459.5591087963</v>
-      </c>
-      <c r="L7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M7" t="s">
-        <v>54</v>
-      </c>
-      <c r="N7" s="2">
-        <v>44456.52199074074</v>
-      </c>
-      <c r="P7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>62</v>
-      </c>
-      <c r="R7" t="s">
-        <v>62</v>
-      </c>
-      <c r="S7" t="s">
+      <c r="AD7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF7" t="s">
         <v>63</v>
-      </c>
-      <c r="T7" t="s">
-        <v>69</v>
-      </c>
-      <c r="U7" t="s">
-        <v>69</v>
-      </c>
-      <c r="V7" t="s">
-        <v>73</v>
-      </c>
-      <c r="W7">
-        <v>1013</v>
-      </c>
-      <c r="Y7">
-        <v>106</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC7">
-        <v>109</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>82</v>
       </c>
       <c r="AG7">
         <v>106</v>
@@ -1368,93 +1374,93 @@
         <v>44459.54693287037</v>
       </c>
       <c r="AI7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:37">
       <c r="A8" s="1">
         <v>65</v>
       </c>
-      <c r="B8" t="s">
-        <v>42</v>
-      </c>
       <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="2">
+      <c r="I8" s="2">
+        <v>44459.5591087963</v>
+      </c>
+      <c r="J8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" t="s">
+        <v>57</v>
+      </c>
+      <c r="M8" t="s">
+        <v>64</v>
+      </c>
+      <c r="N8" t="s">
+        <v>66</v>
+      </c>
+      <c r="O8" t="s">
+        <v>73</v>
+      </c>
+      <c r="P8" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>74</v>
+      </c>
+      <c r="R8" t="s">
+        <v>75</v>
+      </c>
+      <c r="S8" s="2">
+        <v>44456.52199074074</v>
+      </c>
+      <c r="U8" t="s">
+        <v>83</v>
+      </c>
+      <c r="V8">
+        <v>1014</v>
+      </c>
+      <c r="W8">
+        <v>106</v>
+      </c>
+      <c r="X8" s="2">
         <v>44457.52199074074</v>
       </c>
-      <c r="F8">
+      <c r="Z8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>44457.52199074074</v>
+      </c>
+      <c r="AB8">
+        <v>109</v>
+      </c>
+      <c r="AC8">
         <v>108</v>
       </c>
-      <c r="G8" t="s">
-        <v>50</v>
-      </c>
-      <c r="J8" s="2">
-        <v>44457.52199074074</v>
-      </c>
-      <c r="K8" s="2">
-        <v>44459.5591087963</v>
-      </c>
-      <c r="L8" t="s">
-        <v>52</v>
-      </c>
-      <c r="M8" t="s">
-        <v>54</v>
-      </c>
-      <c r="N8" s="2">
-        <v>44456.52199074074</v>
-      </c>
-      <c r="P8" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>62</v>
-      </c>
-      <c r="R8" t="s">
-        <v>62</v>
-      </c>
-      <c r="S8" t="s">
-        <v>63</v>
-      </c>
-      <c r="T8" t="s">
-        <v>70</v>
-      </c>
-      <c r="U8" t="s">
-        <v>70</v>
-      </c>
-      <c r="V8" t="s">
-        <v>73</v>
-      </c>
-      <c r="W8">
-        <v>1014</v>
-      </c>
-      <c r="Y8">
-        <v>106</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC8">
-        <v>109</v>
-      </c>
       <c r="AD8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AE8" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="AF8" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="AG8">
         <v>106</v>
@@ -1463,12 +1469,6 @@
         <v>44459.54693287037</v>
       </c>
       <c r="AI8" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK8" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1487,22 +1487,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1510,19 +1510,19 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
         <v>94</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="G2" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1530,19 +1530,19 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
         <v>94</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="G3" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1550,19 +1550,19 @@
         <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
         <v>95</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="G4" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1570,19 +1570,19 @@
         <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="D5" t="s">
         <v>96</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1590,19 +1590,19 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
         <v>97</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1610,22 +1610,22 @@
         <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="D7" t="s">
         <v>98</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="G7" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1633,22 +1633,22 @@
         <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
         <v>99</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="G8" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1656,22 +1656,22 @@
         <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
         <v>100</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1679,19 +1679,19 @@
         <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
         <v>101</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="G10" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1699,22 +1699,22 @@
         <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
         <v>102</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="F11" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1722,19 +1722,19 @@
         <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
         <v>94</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="G12" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1742,19 +1742,19 @@
         <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="D13" t="s">
         <v>95</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="G13" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1762,19 +1762,19 @@
         <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="D14" t="s">
         <v>96</v>
       </c>
       <c r="E14" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="G14" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1782,19 +1782,19 @@
         <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="D15" t="s">
         <v>97</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="G15" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1802,22 +1802,22 @@
         <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="D16" t="s">
         <v>98</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="F16" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1825,22 +1825,22 @@
         <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="D17" t="s">
         <v>99</v>
       </c>
       <c r="E17" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="F17" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="G17" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1848,22 +1848,22 @@
         <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="D18" t="s">
         <v>100</v>
       </c>
       <c r="E18" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="F18" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1871,19 +1871,19 @@
         <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="C19" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="D19" t="s">
         <v>101</v>
       </c>
       <c r="E19" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="G19" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1891,22 +1891,22 @@
         <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="D20" t="s">
         <v>102</v>
       </c>
       <c r="E20" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="F20" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="G20" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1914,19 +1914,19 @@
         <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="D21" t="s">
         <v>94</v>
       </c>
       <c r="E21" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="G21" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1934,19 +1934,19 @@
         <v>60</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="C22" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="D22" t="s">
         <v>95</v>
       </c>
       <c r="E22" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="G22" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1954,19 +1954,19 @@
         <v>61</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="C23" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D23" t="s">
         <v>94</v>
       </c>
       <c r="E23" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="G23" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1974,19 +1974,19 @@
         <v>62</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="C24" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="D24" t="s">
         <v>94</v>
       </c>
       <c r="E24" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="G24" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1994,19 +1994,19 @@
         <v>63</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="C25" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="D25" t="s">
         <v>95</v>
       </c>
       <c r="E25" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="G25" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2014,19 +2014,19 @@
         <v>64</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="C26" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D26" t="s">
         <v>94</v>
       </c>
       <c r="E26" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="G26" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2034,19 +2034,19 @@
         <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="C27" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D27" t="s">
         <v>95</v>
       </c>
       <c r="E27" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="G27" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
